--- a/excel2mysql/excels/inc_agent_num.xlsx
+++ b/excel2mysql/excels/inc_agent_num.xlsx
@@ -19,15 +19,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>node_id</t>
   </si>
   <si>
-    <t>无注释</t>
+    <t>int(11)|PRI|</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>bigint(20)||</t>
   </si>
 </sst>
 </file>
@@ -357,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -368,7 +374,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -376,7 +382,15 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
